--- a/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
+++ b/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>数据库名称</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>INVITAE is a supporter of Free the Data!</t>
-  </si>
-  <si>
-    <t>ExAC.r0.3.1.sites.vep.vcf_sorted</t>
   </si>
   <si>
     <t>All data here are released under a Fort Lauderdale Agreement for the benefit of the wider biomedical community. You can freely download and search the data,</t>
@@ -193,16 +190,10 @@
     <t>无声明，应属公共数据</t>
   </si>
   <si>
-    <t>krCHB_alone_20180202_stdformat_sorted</t>
-  </si>
-  <si>
     <t>http://www.internationalgenome.org/IGSR_disclaimer</t>
   </si>
   <si>
     <t>我看着像是没说不行，但是不确定</t>
-  </si>
-  <si>
-    <t>krCHS_alone_20180202_stdformat_sorted</t>
   </si>
   <si>
     <t>splice_predict_database.txt_sorted</t>
@@ -258,10 +249,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dbSNP151</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://exac.broadinstitute.org/terms</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -289,8 +276,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ftp://ftp.ensembl.org/pub/release-95/variation/vcf/homo_sapiens/</t>
+    <t>dbSNP151</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExAC.r0.3.1.sites.vep.vcf_sorted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.internationalgenome.org/data</t>
   </si>
 </sst>
 </file>
@@ -781,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -796,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
@@ -839,10 +833,10 @@
     </row>
     <row r="3" spans="1:16384" ht="13.5">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
@@ -859,11 +853,11 @@
         <v>6</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
@@ -882,49 +876,49 @@
     </row>
     <row r="6" spans="1:16384" ht="13.5">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="13.5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16384" ht="13.5">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="13.5">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -950,40 +944,40 @@
     </row>
     <row r="11" spans="1:16384" ht="13.5">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="13.5">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="13.5">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="13.5">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1009,7 +1003,7 @@
     </row>
     <row r="16" spans="1:16384" ht="13.5">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -17393,45 +17387,45 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="13.5">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -17457,74 +17451,70 @@
     </row>
     <row r="26" spans="1:22" ht="13.5">
       <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="13.5">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.5">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="13.5">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="2" customFormat="1" ht="13.5">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="2" customFormat="1" ht="13.5">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -17545,7 +17535,6 @@
     <hyperlink ref="B6" r:id="rId6"/>
     <hyperlink ref="B3" r:id="rId7"/>
     <hyperlink ref="B27" r:id="rId8"/>
-    <hyperlink ref="C19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
+++ b/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据库权限" sheetId="2" r:id="rId1"/>
@@ -773,9 +773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17543,12 +17543,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H15:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="15" spans="8:8">
+      <c r="H15">
+        <f>755/7499</f>
+        <v>0.10068009067875716</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17">
+        <f>755/8254</f>
+        <v>9.1470802035376789E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
+++ b/4.0 数据库管理/20190116--数据库版权+下载地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="数据库权限" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>数据库名称</t>
   </si>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t>http://www.internationalgenome.org/data</t>
+  </si>
+  <si>
+    <t>1000 Genomes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,9 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17467,7 +17471,9 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="13.5">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B27" s="17" t="s">
         <v>61</v>
       </c>
@@ -17476,7 +17482,9 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.5">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
@@ -17537,7 +17545,7 @@
     <hyperlink ref="B27" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -17545,7 +17553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H15:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
